--- a/assets/namia/rapprochement_rapport.xlsx
+++ b/assets/namia/rapprochement_rapport.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="22890" windowHeight="9870"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -317,18 +317,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,356 +330,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -708,251 +365,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -960,63 +375,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1299,22 +662,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -1501,7 +859,7 @@
         <v>1714.44</v>
       </c>
       <c r="D7">
-        <v>1704.24</v>
+        <v>1704.239999999999</v>
       </c>
       <c r="E7">
         <v>1477.06</v>
@@ -1510,10 +868,10 @@
         <v>600.86</v>
       </c>
       <c r="G7">
-        <v>725.76</v>
+        <v>725.7599999999999</v>
       </c>
       <c r="H7">
-        <v>961.38</v>
+        <v>961.3799999999999</v>
       </c>
       <c r="I7">
         <v>344.24</v>
@@ -1530,10 +888,10 @@
         <v>1499.51</v>
       </c>
       <c r="D8">
-        <v>1901.68</v>
+        <v>1901.680000000001</v>
       </c>
       <c r="E8">
-        <v>2096.44</v>
+        <v>2096.440000000001</v>
       </c>
       <c r="F8">
         <v>652.28</v>
@@ -1542,10 +900,10 @@
         <v>573.9</v>
       </c>
       <c r="H8">
-        <v>773.17</v>
+        <v>773.1699999999998</v>
       </c>
       <c r="I8">
-        <v>376.7</v>
+        <v>376.6999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1640,22 +998,22 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>488.73</v>
+        <v>488.7300000000001</v>
       </c>
       <c r="C12">
-        <v>759.26</v>
+        <v>759.2599999999999</v>
       </c>
       <c r="D12">
-        <v>668.57</v>
+        <v>668.5699999999999</v>
       </c>
       <c r="E12">
-        <v>725.58</v>
+        <v>725.5800000000002</v>
       </c>
       <c r="F12">
         <v>255.18</v>
       </c>
       <c r="G12">
-        <v>276.67</v>
+        <v>276.6700000000001</v>
       </c>
       <c r="H12">
         <v>411.56</v>
@@ -1759,10 +1117,10 @@
         <v>190.42</v>
       </c>
       <c r="C16">
-        <v>327.14</v>
+        <v>327.1400000000001</v>
       </c>
       <c r="D16">
-        <v>328.1</v>
+        <v>328.0999999999999</v>
       </c>
       <c r="E16">
         <v>464.86</v>
@@ -1791,13 +1149,13 @@
         <v>325.86</v>
       </c>
       <c r="D17">
-        <v>357.18</v>
+        <v>357.1799999999999</v>
       </c>
       <c r="E17">
         <v>599.01</v>
       </c>
       <c r="F17">
-        <v>308.32</v>
+        <v>308.3200000000001</v>
       </c>
       <c r="G17">
         <v>138.78</v>
@@ -1826,7 +1184,7 @@
         <v>222.56</v>
       </c>
       <c r="F18">
-        <v>67.9</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="G18">
         <v>87.16</v>
@@ -1849,7 +1207,7 @@
         <v>103.1</v>
       </c>
       <c r="D19">
-        <v>67.62</v>
+        <v>67.61999999999999</v>
       </c>
       <c r="E19">
         <v>102.56</v>
@@ -1878,7 +1236,7 @@
         <v>52.38</v>
       </c>
       <c r="D20">
-        <v>68.4</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E20">
         <v>139.48</v>
@@ -1893,7 +1251,7 @@
         <v>102.6</v>
       </c>
       <c r="I20">
-        <v>84.64</v>
+        <v>84.64000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1942,7 +1300,7 @@
         <v>295.06</v>
       </c>
       <c r="F22">
-        <v>68.24</v>
+        <v>68.24000000000001</v>
       </c>
       <c r="G22">
         <v>155</v>
@@ -2006,7 +1364,7 @@
         <v>103.97</v>
       </c>
       <c r="H24">
-        <v>310</v>
+        <v>309.9999999999999</v>
       </c>
       <c r="I24">
         <v>188.26</v>
@@ -2035,7 +1393,7 @@
         <v>104.34</v>
       </c>
       <c r="H25">
-        <v>501.48</v>
+        <v>501.4800000000001</v>
       </c>
       <c r="I25">
         <v>309.68</v>
@@ -2064,7 +1422,7 @@
         <v>69.16</v>
       </c>
       <c r="H26">
-        <v>375.94</v>
+        <v>375.9400000000001</v>
       </c>
       <c r="I26">
         <v>154.42</v>
@@ -2090,10 +1448,10 @@
         <v>255</v>
       </c>
       <c r="G27">
-        <v>86.88</v>
+        <v>86.88000000000001</v>
       </c>
       <c r="H27">
-        <v>636.87</v>
+        <v>636.8699999999999</v>
       </c>
       <c r="I27">
         <v>494.57</v>
@@ -2113,16 +1471,16 @@
         <v>239.82</v>
       </c>
       <c r="E28">
-        <v>670.3</v>
+        <v>670.3000000000001</v>
       </c>
       <c r="F28">
-        <v>481.52</v>
+        <v>481.5199999999999</v>
       </c>
       <c r="G28">
         <v>50.02</v>
       </c>
       <c r="H28">
-        <v>513.56</v>
+        <v>513.5600000000001</v>
       </c>
       <c r="I28">
         <v>447.54</v>
@@ -2171,16 +1529,16 @@
         <v>241.14</v>
       </c>
       <c r="E30">
-        <v>597.02</v>
+        <v>597.0199999999999</v>
       </c>
       <c r="F30">
         <v>375.34</v>
       </c>
       <c r="G30">
-        <v>87.63</v>
+        <v>87.63000000000001</v>
       </c>
       <c r="H30">
-        <v>326.68</v>
+        <v>326.6799999999999</v>
       </c>
       <c r="I30">
         <v>323.58</v>
@@ -2203,7 +1561,7 @@
         <v>170.38</v>
       </c>
       <c r="F31">
-        <v>66.76</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="G31">
         <v>16.7</v>
@@ -2212,7 +1570,7 @@
         <v>101.02</v>
       </c>
       <c r="I31">
-        <v>85.68</v>
+        <v>85.67999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2220,7 +1578,7 @@
         <v>39</v>
       </c>
       <c r="B32">
-        <v>69.8</v>
+        <v>69.80000000000001</v>
       </c>
       <c r="C32">
         <v>103.3</v>
@@ -2249,7 +1607,7 @@
         <v>40</v>
       </c>
       <c r="B33">
-        <v>86.98</v>
+        <v>86.97999999999999</v>
       </c>
       <c r="C33">
         <v>174.38</v>
@@ -2258,7 +1616,7 @@
         <v>223.62</v>
       </c>
       <c r="E33">
-        <v>376.94</v>
+        <v>376.9400000000001</v>
       </c>
       <c r="F33">
         <v>172.1</v>
@@ -2299,7 +1657,7 @@
         <v>122.14</v>
       </c>
       <c r="I34">
-        <v>86.04</v>
+        <v>86.04000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2316,10 +1674,10 @@
         <v>380.32</v>
       </c>
       <c r="E35">
-        <v>512.06</v>
+        <v>512.0600000000001</v>
       </c>
       <c r="F35">
-        <v>275.44</v>
+        <v>275.4400000000001</v>
       </c>
       <c r="G35">
         <v>35.06</v>
@@ -2339,7 +1697,7 @@
         <v>68.55</v>
       </c>
       <c r="C36">
-        <v>206.46</v>
+        <v>206.4599999999999</v>
       </c>
       <c r="D36">
         <v>257.3</v>
@@ -2374,7 +1732,7 @@
         <v>188.22</v>
       </c>
       <c r="E37">
-        <v>358.94</v>
+        <v>358.9399999999999</v>
       </c>
       <c r="F37">
         <v>222.02</v>
@@ -2394,7 +1752,7 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>86.2</v>
+        <v>86.19999999999999</v>
       </c>
       <c r="C38">
         <v>276.5</v>
@@ -2403,10 +1761,10 @@
         <v>308.02</v>
       </c>
       <c r="E38">
-        <v>634.2</v>
+        <v>634.2000000000002</v>
       </c>
       <c r="F38">
-        <v>340.9</v>
+        <v>340.8999999999999</v>
       </c>
       <c r="G38">
         <v>35.36</v>
@@ -2415,7 +1773,7 @@
         <v>188.62</v>
       </c>
       <c r="I38">
-        <v>342.78</v>
+        <v>342.7800000000001</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2426,13 +1784,13 @@
         <v>154.32</v>
       </c>
       <c r="C39">
-        <v>311.9</v>
+        <v>311.8999999999999</v>
       </c>
       <c r="D39">
         <v>378.84</v>
       </c>
       <c r="E39">
-        <v>580.64</v>
+        <v>580.6399999999999</v>
       </c>
       <c r="F39">
         <v>258.06</v>
@@ -2441,7 +1799,7 @@
         <v>33.98</v>
       </c>
       <c r="H39">
-        <v>379.98</v>
+        <v>379.9799999999999</v>
       </c>
       <c r="I39">
         <v>326.74</v>
@@ -2458,13 +1816,13 @@
         <v>223.44</v>
       </c>
       <c r="D40">
-        <v>277.23</v>
+        <v>277.2300000000001</v>
       </c>
       <c r="E40">
         <v>580.8</v>
       </c>
       <c r="F40">
-        <v>304.62</v>
+        <v>304.6200000000001</v>
       </c>
       <c r="G40">
         <v>51.6</v>
@@ -2490,7 +1848,7 @@
         <v>135.32</v>
       </c>
       <c r="E41">
-        <v>372</v>
+        <v>371.9999999999999</v>
       </c>
       <c r="F41">
         <v>153.76</v>
@@ -2522,7 +1880,7 @@
         <v>511.78</v>
       </c>
       <c r="F42">
-        <v>356.36</v>
+        <v>356.3600000000001</v>
       </c>
       <c r="G42">
         <v>34.68</v>
@@ -2548,7 +1906,7 @@
         <v>292.82</v>
       </c>
       <c r="E43">
-        <v>649.9</v>
+        <v>649.8999999999999</v>
       </c>
       <c r="F43">
         <v>343.7</v>
@@ -2571,7 +1929,7 @@
         <v>70.22</v>
       </c>
       <c r="C44">
-        <v>68.58</v>
+        <v>68.58000000000001</v>
       </c>
       <c r="D44">
         <v>136.4</v>
@@ -2693,7 +2051,7 @@
         <v>137.38</v>
       </c>
       <c r="E48">
-        <v>410</v>
+        <v>409.9999999999999</v>
       </c>
       <c r="F48">
         <v>223.86</v>
@@ -2716,19 +2074,19 @@
         <v>121.16</v>
       </c>
       <c r="C49">
-        <v>307.18</v>
+        <v>307.1799999999999</v>
       </c>
       <c r="D49">
-        <v>376.62</v>
+        <v>376.6199999999999</v>
       </c>
       <c r="E49">
-        <v>767.22</v>
+        <v>767.2199999999999</v>
       </c>
       <c r="F49">
         <v>409.12</v>
       </c>
       <c r="G49">
-        <v>67.44</v>
+        <v>67.44000000000001</v>
       </c>
       <c r="H49">
         <v>307.3</v>
@@ -2745,7 +2103,7 @@
         <v>186.04</v>
       </c>
       <c r="C50">
-        <v>448</v>
+        <v>447.9999999999999</v>
       </c>
       <c r="D50">
         <v>563.2</v>
@@ -2780,10 +2138,10 @@
         <v>501.26</v>
       </c>
       <c r="E51">
-        <v>734.28</v>
+        <v>734.2800000000001</v>
       </c>
       <c r="F51">
-        <v>442.44</v>
+        <v>442.4399999999999</v>
       </c>
       <c r="G51">
         <v>50.98</v>
@@ -2792,7 +2150,7 @@
         <v>326.18</v>
       </c>
       <c r="I51">
-        <v>374.18</v>
+        <v>374.1799999999999</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2809,13 +2167,13 @@
         <v>496.61</v>
       </c>
       <c r="E52">
-        <v>941.6</v>
+        <v>941.5999999999999</v>
       </c>
       <c r="F52">
-        <v>424.97</v>
+        <v>424.9699999999999</v>
       </c>
       <c r="G52">
-        <v>52.22</v>
+        <v>52.22000000000001</v>
       </c>
       <c r="H52">
         <v>446.9</v>
@@ -2832,16 +2190,16 @@
         <v>174.66</v>
       </c>
       <c r="C53">
-        <v>325</v>
+        <v>325.0000000000001</v>
       </c>
       <c r="D53">
-        <v>501.72</v>
+        <v>501.7199999999999</v>
       </c>
       <c r="E53">
-        <v>921.68</v>
+        <v>921.6799999999999</v>
       </c>
       <c r="F53">
-        <v>441.08</v>
+        <v>441.0800000000001</v>
       </c>
       <c r="G53">
         <v>51.7</v>
@@ -2876,10 +2234,10 @@
         <v>34.14</v>
       </c>
       <c r="H54">
-        <v>429.1</v>
+        <v>429.1000000000001</v>
       </c>
       <c r="I54">
-        <v>410.68</v>
+        <v>410.6800000000001</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2893,13 +2251,13 @@
         <v>327.92</v>
       </c>
       <c r="D55">
-        <v>500.32</v>
+        <v>500.3199999999999</v>
       </c>
       <c r="E55">
-        <v>885.5</v>
+        <v>885.4999999999999</v>
       </c>
       <c r="F55">
-        <v>477.82</v>
+        <v>477.8199999999999</v>
       </c>
       <c r="G55">
         <v>35.42</v>
@@ -2908,7 +2266,7 @@
         <v>461.6</v>
       </c>
       <c r="I55">
-        <v>427.74</v>
+        <v>427.7400000000001</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2919,16 +2277,16 @@
         <v>174.06</v>
       </c>
       <c r="C56">
-        <v>483.38</v>
+        <v>483.3799999999999</v>
       </c>
       <c r="D56">
-        <v>586.58</v>
+        <v>586.5799999999998</v>
       </c>
       <c r="E56">
         <v>1017.6</v>
       </c>
       <c r="F56">
-        <v>652.88</v>
+        <v>652.8800000000002</v>
       </c>
       <c r="G56">
         <v>34.14</v>
@@ -2948,13 +2306,13 @@
         <v>122.12</v>
       </c>
       <c r="C57">
-        <v>309.68</v>
+        <v>309.6799999999999</v>
       </c>
       <c r="D57">
-        <v>682.78</v>
+        <v>682.7800000000001</v>
       </c>
       <c r="E57">
-        <v>894.24</v>
+        <v>894.2400000000001</v>
       </c>
       <c r="F57">
         <v>459.3</v>
@@ -2986,16 +2344,16 @@
         <v>972.76</v>
       </c>
       <c r="F58">
-        <v>479.92</v>
+        <v>479.9199999999999</v>
       </c>
       <c r="G58">
         <v>34.88</v>
       </c>
       <c r="H58">
-        <v>415.52</v>
+        <v>415.5200000000001</v>
       </c>
       <c r="I58">
-        <v>495.92</v>
+        <v>495.9199999999999</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3009,10 +2367,10 @@
         <v>257.84</v>
       </c>
       <c r="D59">
-        <v>670.52</v>
+        <v>670.5199999999999</v>
       </c>
       <c r="E59">
-        <v>887.26</v>
+        <v>887.2600000000001</v>
       </c>
       <c r="F59">
         <v>389.66</v>
@@ -3038,10 +2396,10 @@
         <v>343.76</v>
       </c>
       <c r="D60">
-        <v>445.2</v>
+        <v>445.2000000000001</v>
       </c>
       <c r="E60">
-        <v>685.1</v>
+        <v>685.0999999999999</v>
       </c>
       <c r="F60">
         <v>340.78</v>
@@ -3050,7 +2408,7 @@
         <v>33.96</v>
       </c>
       <c r="H60">
-        <v>409.46</v>
+        <v>409.4600000000002</v>
       </c>
       <c r="I60">
         <v>257.54</v>
@@ -3070,7 +2428,7 @@
         <v>748.54</v>
       </c>
       <c r="E61">
-        <v>769.34</v>
+        <v>769.3399999999997</v>
       </c>
       <c r="F61">
         <v>307.98</v>
@@ -3122,13 +2480,13 @@
         <v>207.86</v>
       </c>
       <c r="C63">
-        <v>464.62</v>
+        <v>464.6200000000002</v>
       </c>
       <c r="D63">
         <v>585.67</v>
       </c>
       <c r="E63">
-        <v>620.32</v>
+        <v>620.3199999999999</v>
       </c>
       <c r="F63">
         <v>238.54</v>
@@ -3154,10 +2512,10 @@
         <v>497.5</v>
       </c>
       <c r="D64">
-        <v>648.3</v>
+        <v>648.2999999999996</v>
       </c>
       <c r="E64">
-        <v>615.62</v>
+        <v>615.6200000000001</v>
       </c>
       <c r="F64">
         <v>237.76</v>
@@ -3166,7 +2524,7 @@
         <v>50.5</v>
       </c>
       <c r="H64">
-        <v>411.44</v>
+        <v>411.4400000000001</v>
       </c>
       <c r="I64">
         <v>272.72</v>
@@ -3180,7 +2538,7 @@
         <v>190.87</v>
       </c>
       <c r="C65">
-        <v>480.16</v>
+        <v>480.1599999999999</v>
       </c>
       <c r="D65">
         <v>516.5</v>
@@ -3195,7 +2553,7 @@
         <v>50.35</v>
       </c>
       <c r="H65">
-        <v>327.06</v>
+        <v>327.0600000000001</v>
       </c>
       <c r="I65">
         <v>203.26</v>
@@ -3215,13 +2573,13 @@
         <v>394.16</v>
       </c>
       <c r="E66">
-        <v>428.58</v>
+        <v>428.5799999999999</v>
       </c>
       <c r="F66">
         <v>118.38</v>
       </c>
       <c r="G66">
-        <v>85.54</v>
+        <v>85.54000000000001</v>
       </c>
       <c r="H66">
         <v>514.84</v>
@@ -3238,7 +2596,7 @@
         <v>68.06</v>
       </c>
       <c r="C67">
-        <v>256.16</v>
+        <v>256.1600000000001</v>
       </c>
       <c r="D67">
         <v>240.66</v>
@@ -3299,7 +2657,7 @@
         <v>309.94</v>
       </c>
       <c r="D69">
-        <v>429.66</v>
+        <v>429.6600000000001</v>
       </c>
       <c r="E69">
         <v>545.04</v>
@@ -3308,7 +2666,7 @@
         <v>240.42</v>
       </c>
       <c r="G69">
-        <v>50.82</v>
+        <v>50.81999999999999</v>
       </c>
       <c r="H69">
         <v>257.44</v>
@@ -3354,13 +2712,13 @@
         <v>87.16</v>
       </c>
       <c r="C71">
-        <v>259.86</v>
+        <v>259.8600000000001</v>
       </c>
       <c r="D71">
-        <v>381.3</v>
+        <v>381.3000000000001</v>
       </c>
       <c r="E71">
-        <v>431.3</v>
+        <v>431.3000000000001</v>
       </c>
       <c r="F71">
         <v>207.5</v>
@@ -3418,7 +2776,7 @@
         <v>222.2</v>
       </c>
       <c r="E73">
-        <v>413.2</v>
+        <v>413.2000000000002</v>
       </c>
       <c r="F73">
         <v>154.6</v>
@@ -3467,7 +2825,7 @@
         <v>82</v>
       </c>
       <c r="B75">
-        <v>53.72</v>
+        <v>53.72000000000001</v>
       </c>
       <c r="C75">
         <v>136.16</v>
@@ -3496,7 +2854,7 @@
         <v>83</v>
       </c>
       <c r="B76">
-        <v>51.82</v>
+        <v>51.81999999999999</v>
       </c>
       <c r="C76">
         <v>257.62</v>
@@ -3505,7 +2863,7 @@
         <v>309.96</v>
       </c>
       <c r="E76">
-        <v>309.82</v>
+        <v>309.8200000000001</v>
       </c>
       <c r="F76">
         <v>187.24</v>
@@ -3528,7 +2886,7 @@
         <v>102.4</v>
       </c>
       <c r="C77">
-        <v>312.8</v>
+        <v>312.8000000000001</v>
       </c>
       <c r="D77">
         <v>310.18</v>
@@ -3554,7 +2912,7 @@
         <v>85</v>
       </c>
       <c r="B78">
-        <v>49.82</v>
+        <v>49.81999999999999</v>
       </c>
       <c r="C78">
         <v>205.48</v>
@@ -3589,10 +2947,10 @@
         <v>240.46</v>
       </c>
       <c r="D79">
-        <v>309.84</v>
+        <v>309.8399999999999</v>
       </c>
       <c r="E79">
-        <v>307.22</v>
+        <v>307.2200000000001</v>
       </c>
       <c r="F79">
         <v>119.06</v>
@@ -3618,7 +2976,7 @@
         <v>258.14</v>
       </c>
       <c r="D80">
-        <v>306.58</v>
+        <v>306.5799999999999</v>
       </c>
       <c r="E80">
         <v>308.38</v>
@@ -3650,7 +3008,7 @@
         <v>275.9</v>
       </c>
       <c r="E81">
-        <v>310.14</v>
+        <v>310.1399999999999</v>
       </c>
       <c r="F81">
         <v>121.18</v>
@@ -3670,7 +3028,7 @@
         <v>89</v>
       </c>
       <c r="B82">
-        <v>69.18</v>
+        <v>69.18000000000001</v>
       </c>
       <c r="C82">
         <v>205.88</v>
@@ -3679,7 +3037,7 @@
         <v>309.88</v>
       </c>
       <c r="E82">
-        <v>308.68</v>
+        <v>308.6800000000001</v>
       </c>
       <c r="F82">
         <v>118.92</v>
@@ -3714,7 +3072,7 @@
         <v>102.58</v>
       </c>
       <c r="G83">
-        <v>51.9</v>
+        <v>51.90000000000001</v>
       </c>
       <c r="H83">
         <v>188.62</v>
@@ -3749,7 +3107,7 @@
         <v>135.34</v>
       </c>
       <c r="I84">
-        <v>67.9</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3798,13 +3156,13 @@
         <v>137.82</v>
       </c>
       <c r="F86">
-        <v>68.02</v>
+        <v>68.02000000000001</v>
       </c>
       <c r="G86">
         <v>52.42</v>
       </c>
       <c r="H86">
-        <v>206.5</v>
+        <v>206.4999999999999</v>
       </c>
       <c r="I86">
         <v>102.42</v>
@@ -3836,7 +3194,7 @@
         <v>136.2</v>
       </c>
       <c r="I87">
-        <v>52.38</v>
+        <v>52.38000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3853,7 +3211,7 @@
         <v>33.7</v>
       </c>
       <c r="E88">
-        <v>68.48</v>
+        <v>68.47999999999999</v>
       </c>
       <c r="F88">
         <v>17.22</v>
@@ -3865,7 +3223,7 @@
         <v>102.02</v>
       </c>
       <c r="I88">
-        <v>67.68</v>
+        <v>67.67999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3894,7 +3252,7 @@
         <v>119.14</v>
       </c>
       <c r="I89">
-        <v>68.18</v>
+        <v>68.17999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3957,6 +3315,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>